--- a/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. If we could ask all the members to take their seat and the audience as well, this hearing Reforming the National Security Council: Efficiency and Accountability, will come to order.    In recent years, there has been increasing bipartisan concern over the size and the role of the President's National Security Council. In too many cases, its traditional role of ``honest broker'' has evolved to a policy-making role. It has even undertaken secret diplomatic negotiations and that has been done outside of Congress' view.    Indeed, one observer recently wrote, ``The national security advisor and his or her staff remain among the most influential entities in the Federal bureaucracy that are not subject to direct congressional oversight.'' This has proven to be a problem for this committee.    While concerns about the NSC aren't new, they have reached new heights, leading to current proposals before Congress to statutorily restrict the size of the NSC staff. This is a staff that has increased from 100 persons at the start of President George Bush's presidency to reportedly over 400 people today on the NSC staff. Such a large staff sends the message that the President intends to run foreign policy and military operations out of the White House to the exclusion of the cabinet.    It also makes for more meddlers. Indeed, former Defense Secretary Gates has complained that the ``micromanagement'' of the Obama White House ``drove me crazy.'' A smaller staff would more likely empower cabinet secretaries to do what they have been selected and confirmed by the Senate to do and that is to run their departments.    More staff means more meetings and often paralysis. According to a report in the Washington Post last year, on some issues, NSC meetings of the cabinet deputies ``grew so repetitive'' that ``deputies stopped coming, sending assistant secretaries and below in their stead.'' How many hearings has the committee held on Ukraine at which State Department officials have told us that the White House is still debating Kiev's request for heavy defensive weapons?    Also of concern, the profile of an NSC staffer has changed from a seasoned professional doing a stint at the White House as the capstone of their career, to that of junior professionals just off the campaign trail. As one interviewed for the Atlantic Council's Study we will hear about today said, ``This is no place for on-the-job training of bright, young, but inexperienced people.'' Especially at the expense of the State Department.    Take the President's move to normalize relations with Cuba, secretly run out of the White House by two NSC staffers. Secretary of State Kerry was not informed of these negotiations until the discussions were well underway, and State Department officials in charge of the region found out only as the negotiations were all but done.    Why do we care? When the committee requested that these NSC staffers testify, we were told no and given a separation of powers excuse. But our role and the responsibility is to conduct oversight of U.S. relations with foreign nations. And if the committee can't hear directly from those most involved in these negotiations, our role and influence--and that of the American people we represent--is significantly minimalized.    This morning, we will hear from several witnesses who have direct experience with the growing size and role of the President's NSC. While today's focus is about process, process is important to good policy. And we hope that our discussion will lead to recommendations for the next administration to improve the efficiency of this important body.    And I now turn to the ranking member for any opening remarks from Mr. Eliot Engel of New York.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman. Thank you for calling this hearing. Ambassador Miller, Ambassador Bloomfield, Mr. Chollet, welcome to the Foreign Affairs Committee. We are grateful for your time and your expertise.    It has been nearly 70 years since the National Security Act created the National Security Council. Over that time, the council has proved to be a flexible and dynamic body. Every President has shaped the NSC staff in a way that has worked best for his purposes.    Congress intended for the NSC staff to serve as the President's advisory and interagency coordinated body. As the National Security Act put it, to ``advise, coordinate, access and praise'' policymakers relating to national security.    Obviously, over that time, national security politics and concerns has changed, as the world has changed and the NSC has had to keep pace. As we think about how the NSC might look under future administrations, we should keep in mind lessons learned in the NSC's first 70 years.    First, a selection of a National Security Advisor is one of the most critical appointments the President will make. This person sets the tone for the rest of the NSC and the National Security Agencies. The President should have full faith with the National Security Advisor as a trusted confident, a role that Congress has supported.    Secondly, the President's policy staff should be national security experts with experience managing interagency processes. Even though many of them are detailed from other parts of the government, their loyalty should be to our national security and not to any one agency or service.    And thirdly, while the NSC staff should certainly be in the business of advising the President on policy and ensuring the agencies are carrying out that policy, the NSC staff itself should not be carrying out the policy. That responsibility rests with the cabinet agencies with Congress' oversight.    It is essential to our discussion today how do we ensure that the execution of foreign policy stays where it belongs. One common explanation is that the NSC mission creep results from the NSC staff growing too large and the easy solution is to limit the size of the staff. I am sympathetic to that feeling because we don't want it to be too large and we don't want it to be usurping things that the State Department or the Agency should do. But it is not just that. That, in itself, in my opinion, is too simplistic. It fails to take into account why the staff is growing and ignores the bureaucratic demands placed in the NSC.    The real questions we should be asking are about the appropriate role of the NSC and how it is managed, issues that are important, regardless of the size of the staff. I do want to say that I am concerned about the size of the staff but I think these other things are at least equal of concern as well.    In a certain way, the NSC was set up as a clearing house. Seventy years ago, the cabinet agencies had relatively clear-cut missions with a minimal amount of overlap. When matters emerged that required cross-agency collaboration or tradeoffs, the question went up the food chain to the NSC and the NSC coordinated among agencies.    Today, we face so many more issues that are crosscutting and overlapping and they often involve a whole host of cabinet agencies. Just consider the Zika virus. State Department, HHS, and the Agriculture Department all have roles to play in addressing that problem but our civilian agencies are still essentially a stovepipe bureaucracy. So, when questions emerge about one of the many complex national security issues we face, those questions still get passed up to the NSC, often leaving policy-making decisions in the White House's hands. Over time, this pattern has forced the staff to grow as well. Past attempts to create so-called tsars to oversee overlapping issues have proved to be a Band-Aid at best, and at worst, totally ineffective. So, how do we empower our agencies to deal with a modern set of challenges without having their first phone call be to the White House? How do we modernize our agencies and, we think, decades-old bureaucratic structures ill-suited to the new challenges we face?    We know this sort of reform is possible. We saw it succeed decades ago when the Goldwater-Nichols Act forced our military services to work together in joint commands. That law promoted collaboration and a more unified approach to military concerns. Following the same approach, we need to make it easier for the talented men and women in our cabinet agencies to collaborate and arrive at policy consensus. That way, NSC staff could get back to their original mission, advising the President on policy, seeing that policy carried out, and facilitating coordination among agencies only in those instances when it is absolutely necessary.    Yet, we simply cannot expect our agencies to shake off decades-old procedures and habits if Congress isn't providing them with the tools and resources they need to become effective, modern organizations. It has been 15 years since Congress sent a State Department authorization to the President. I want to repeat that, 15 years since Congress sent a State Department authorization to the President. I don't think anyone on this committee, on both sides of the aisle, is happy about that. This committee recently marked up such legislation. It is sitting on the launch pad, waiting for House leadership to say go. I think the problem that we are discussing today is one more reason that the House needs to finish its work on the bill and I would encourage all the other National Security Committees to look at what needs to be done to bring their agencies into the 21st century.    To our witnesses: I am curious to hear your views on the structure of the NSC and how we can make our agencies more effective and collaborative when it comes to policymaking. Again, we are grateful for your time.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Chollet</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chollet. Mr. Chairman, Ranking Member Engel, members of the committee, it is an honor to appear before you again and I will briefly summarize my longer statement for the record.    I approach this important topic from a unique perspective. I served on President-elect Obama's NSC Transition Team 8 years ago and then I went on to serve for 6 years in the Obama administration at the State Department, at the Pentagon, and at the National Security Council staff at the White House. So, therefore, I follow the assessment of this administration's NSC system with great interest, since I both experienced and am partly responsible for many of the concerns that have been raised.    Consider the three most common concerns expressed about the current NSC. First, that it is too big; second, that it is too operational; and third, that it has a proclivity for too much micromanagement and too little strategic thinking. And let me take each in turn.    First, most experts and former officials believe that the NSC is too big. We certainly thought so during the 2008 transition from President Bush to President Obama, as does the current NSC leadership today. And yet the trend, I think, is headed in the right direction. Today's NSC policy and leadership staff consists of fewer than 200 people. And my understanding is that with the current downsizing underway, and there has been about a 15-percent cut in NSC staff since January 2015, the NSC staff size that Obama will leave next year will be roughly the same as what he inherited from President Bush in 2009.    And it is important to consider these numbers in context. Some of the widely cited higher numbers of the Obama NSC staff size reflect the back office functions like those staffing the White House situation room, the records management personnel, as well as the integration of the Homeland Security Council in 2009. And moreover, even despite its growth, the current NSC remains comparatively small. The Joint Chiefs of Staff is over seven times larger. The State Department's Office of the Secretary is nearly twice the size of the NSC staff, as is the staff of the Congressional Research Service. So in many ways, the NSC's evolution reflects global complexity and how much the world and our Government has changed.    For example, the traditional regional policy offices, Latin America, Asia, Europe, et cetera, have looked similar in both size and function during the past several decades, yet there are now new policy dimensions the NSC must cover such as cybersecurity, climate change, WMD proliferation, biosecurity and global health, global economics, counterterrorism. Few of these issues were prominent a quarter century ago and none of them reside in a single agency, which is why close coordination is so important.    Because of this complexity and the importance for the President to maintain flexibility in how she or he can respond to events, I believe it is a mistake to impose arbitrary caps on the NSC staff size, nor do I believe it wise to make the position of National Security Advisor require Senate confirmation. And here, I can do no better than echo the 1987 Tower Commission Report, which studied this issue carefully and in its warning that doing so, making the NSC Advisor Senate-confirmed would undermine the Presidential advisory role the National Security Advisor must play and only create more bureaucratic confusion and tension than it would resolve.    Now, concerns about the NSC size relate directly to a second enduring critique that the NSC is too operational. Now, agencies must be given the responsibility and be held accountable for doing their jobs. And in my experience, that is what Presidents and members of the NSC staff wanted. But at the same time, agencies must operate within the policy parameters set by the President. Now, sometimes, when the White House tried to enforce regular order and place the agencies in charge of a policy, then it was accused of taking its eye off the ball. And where you stand often depends on whether you agree with the policy direction. For example, Obama's NSC has held tight control over U.S. troop levels in Iraq and Afghanistan but it is important to remember that the Bush White House conducted the same intense oversight when managing the surge in Iraq from the West Wing in 2007 and 2008. Moreover, some policy issues lend themselves to a strong White House lead and many of those delicate tasks require such agility that they are best managed from a tight circle within the White House.    Yet, these must be the exception, rather than the rule, which brings us to the third common critique, that by micromanaging, the NSC is not doing enough strategy.    I used to run the strategy office at the NSC. So, I can fully appreciate how difficult this task can be. And in today's tumultuous policy environment where our President is expected to respond to almost everything instantly, it is very difficult to keep the urgent from overwhelming the important. Crisis management tends to dominate the NSC's operations. And although during my time and since, the NSC staff worked very hard to allow senior officials the opportunity to think about long-term strategy and examine crosscutting issues, it has not nearly been enough.    Mr. Chairman, Ranking Member Engel, members of this committee, the recent focus on the NSC's design and operation has generated an important debate. I welcome congressional attention to this issue. My hope is that by opening up this conversation, we can make some necessary changes, empower agencies to do their jobs, while ensuring that the President gets the advice and support she or he requires to conduct a strong, coordinated, and strategic national security policy that serves the interest of the American people.    Thank you very much and I look forward to your questions.</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Chairman. Thank you for this hearing. From the ransom payments in Iran, to the alleged secret Iran deals, and humanitarian catastrophe that is unfolding every day in Syria, the manipulations of intelligence on ISIS, there are too many examples of how the White House has manipulated information while keeping the Congress and, most importantly, the American people in the dark.    And Mr. Chairman, thank you so much for bringing up Cuba in your opening statement because that is a good example of what was happening with the secretive nature. The White House decided to keep not only Congress in the dark but also cut out the State Department and others, even though the White House was negotiating with the Cuban regime for more than a year. Then Assistant Secretary Jacobson testified before our committee in February 2015 that she found out about the negotiations just weeks before the announcement. And when former Deputy National Security Advisor and now Deputy Secretary of State Tony Blinken testified at his confirmation hearing in November 2014, he assured the Senate Foreign Relations Committee that any change in U.S. policy toward Cuba would be done in full consultation with Congress. Well, that turned out to be an utter falsehood, as less than a month later with zero consultation with the Congress, the administration announced what has proven to be a complete failure of a deal with the Castro regime. And as we heard from Ambassador Bloomfield, NSC staffers shouldn't conduct official actions, which are supposed to be the responsibility of agencies that are answerable to Congress, and then expect to be immune from accountability.    So, Mr. Chollet, I have a series of questions. We won't have time to answer them but maybe we can have a discussion afterward.    Is it worrisome that NSC is not accountable to Congress or that when Congress attempts to exercise our oversight authority in the foreign policy realm, it cannot perform that function because NSC officials do not testify before Congress? Also, what steps can Congress make in order to make the NSC more transparent?    There was a time when NSC staffers were trained on the proper rules to delineate between the duties and roles of the NSC and the duties and roles of the State Department or Defense Department, making sure that they didn't overlap and, instead, stayed focused on their responsibility in those lanes and left the policymaking to the proper person. And I was wondering if you received that kind of training when you were at the NSC and do you have any idea if training programs of this type still exist.    Also, in November of last year, when I traveled to Afghanistan and our generals on the ground indicated that their hands were tied when it came to operations, no doubt it was because, I believe, NSC was overriding our leaders on the field, and former Defense Secretaries Gates and Panetta both have complained about NSC staff imposing themselves on their jurisdiction. Based on your experience in both the NSC and various government agencies, maybe you can help shed some light on that.    Thank you, sir.</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Last century the high-water mark for the NSC was Kissinger. Everything we complain about now was probably more true then, in terms of the NSC.    As to this century, I have seen this committee and the House of Representatives in general go from foreign policy makers to foreign policy kibitzers that are at least allowed to provide some oversight and some input to really an irrelevancy because the most important people making and carrying out foreign policy don't even come here and pretend to listen to us.    Mr. Chairman, the Armed Services Committee passes an authorization bill every year and nothing illustrates the importance of that more than that the provision to limit the size of the National Security Council is in their bill and will be considered in their bill, whereas our bill for 15 years is an exercise in--well, often isn't even written. It usually isn't even considered by the House and hasn't reached the President's desk in 15 years.    So, what we need to do is say not how can we possibly get the most important Presidential advisor on foreign policy to come into this room but how can we write an authorizing bill in this room that becomes law? And I would like to see us demand that we don't appropriate money for foreign policy that isn't authorized. And we could do that by insisting that the authorizing bill that we pass be joined to the appropriations bill and that neither the Senate nor the President should be able to get the money without dealing with the authorizing provisions. And if we, as a committee, would demand that the rule for considering the foreign operations appropriations bill include both the authorizing and the appropriation. And I would like them to be separate bills but separate bills where one of them is thrown away, that is not the best approach. So, if they were married, then, when they go over to the Senate, we make it plain--you have to have an authorizing and an appropriations bill. You go to the President and you say you want the money, you have to look at the appropriations; you have to look at the authorizations as well.    Mr. Chollet, I am going to go into a much less significant point. You compared the NSC staff to CRS. Is that just the CRS foreign policy national security folks? That is not their folks on medicine or transportation or whatever.</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher [presiding]. Well, here we are and it is in my hands. There you go. Be afraid. Be very afraid.    All right, let me just note that I had the privilege of serving in the White House for 7 years and I had a lot of experience with the NSC and a lot of experience since then and during that time, with the other agencies of government. So, I have more than just having been here on this side of the questioning.    Let me suggest this. I think that our Government isn't working as effectively as it could and should. I think that targeting the NSC is the wrong target. Having, as I say, experience with all of these players, it is not the NSC that is the problem. The problem is we have a bloated State Department and a bloated intelligence community. I mean after 9/11, what did we do? We made the intelligence community even more complicated, put even another layer of bureaucracy between the President and his intelligence sources. That is what we did in Congress.    Now, the fact is the National Security Council was established so that the President of the United States would have people on his staff who could keep up on the issues of the day. And now there is a debate whether or not the NSC is overstepping its bounds when the President actually engages in foreign policy activities that I guess the Congress or other people or the State Department feels they should be conducting. Let us note that Kissinger made a dramatic difference in the history of this country when, at the height of the Cold War, when it was going against us, it looked like the United States was going down, that he changed the whole dynamics by reaching out to China. That happened secretly. I believe if they tried to do it through the State Department, that initiative never would have succeeded. That would have been undercut and every step of the way, not to mention what would happen if the CIA and everybody else was involved in it.    Let me note also that the bad use of the NSC, what Ambassador Bloomfield mentioned was the Iran-Contra Affair. We had given the contras $100 million the year before to the CIA and then all of a sudden we are going to cut them off. There is a lot of politics being played on that that culminated, instead of letting those guys go, Ollie North took it upon himself to make sure they got money for ammunition, et cetera. So, I don't think that is an example of how things go haywire.    And thinking back, the Iran-Contra Affair demonstrated that the President of the United States has to be a player in these things and has to have a staff that is able to be a player.    Ollie North, also, I might add, when he was there, took it upon himself to reposition a carrier battle group so that when the Achille Lauro was taken over that we would have airplanes that could actually intercept the terrorists when they were captured, if you remember that.    Now, I don't know if we would have gone through the normal channels whether that carrier battleship would force but they at least paid attention when Ollie North called up the admiral and said, that would be a good place to have put them there in case of emergency.    One personal example I remember and I have been deeply involved in the Afghan thing since I was a speechwriter. What is a speechwriter doing being involved in helping the Mujahideen in Afghanistan? But that is the way it was and there was a situation where a general called me and said look, we have to take off within a matter of days or there is a field hospital that will not go to the Mujahideen on the border of Pakistan and Afghanistan.    And these are men who put their lives on the line for us and the Pakistanis are demanding money for our planes to land and our planes aren't going to land. And thus, hundreds of Mujahideen are going to die because we don't have this field hospital that is in the back of the C-130 waiting to go there. Can you do something?    Now, at that time, I am a member of the President's staff. I am a Special Assistant to the President of the United States. Well, if I had to go call up somebody over at the State Department, the CIA, or the Defense Department, it would not have gotten done. I know that. Hundreds of people fighting for us against the Soviet army would have been dead. And I called up a guy at NSC and he said well, we can't do this on our own; I can't do this. And I said look, all I want you to do is take a call, give a call to our Embassy in Pakistan, and they will then tell the Pakistani Government that the White House has called and the job will get done. Oh, I can't do that on my own. You know what? He called back and he said okay, I will do it. Because I told him, I said okay, hundreds of people will die who are our best allies in the fight against the Soviet Union and they will die because you are not willing to make one call.    He calls back and says okay, I will do it. And do you know what? One call and that hospital equipment got there and hundreds of lives were saved. We need to have a National Security Council that can function, that can do that, that can save the lives of those of hundreds of thousands Mujahideen fighters or whoever it is that is in jeopardy around the world.    And isn't NSC involved in crisis management? Okay, the President needs a staff to be there during a crisis. Does the President need someone for policy analysis so that he is not getting hundreds of reports from different points of view? Let somebody be there who can digest it over a matter of days, rather than an hour when the President has to make a decision. No, we need that.    And I think that the NSC should not be decreased and, instead we should try to make the rest of the government more efficient and that is where things are breaking down.    Please feel free to comment on anything I just said right down the line, Ambassador Miller.    Ambassador Miller. On the intel situation, I could not agree more. For my 2 years at the White House, I ran the Counter Terrorism Coordination weekly meeting, the CSG, Lincoln and I got to meet each other then.    Counter terrorism requires a very tight turning radius and that means speed of movement and trust of communicators. You can't do that among large bureaucratic structures I don't think. Eventually, it gets down to does the J3 trust you? Does the head of counter terrorism at the CIA trust you? Do your principals trust you as the first line actors? And if they don't, you can lose that advantage of information which may be stale in 2 or 3 days and you have to move.    On your ability to call, let us suppose you need to call the J3. The problem with a very, very large White House staff is that senior officers at the Pentagon don't get to know the White House staff and they don't really know who is phoning. And you get more stories about the White House called--456-1414 is not a self-dialing machine. You know----</t>
   </si>
   <si>
@@ -250,9 +232,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman. It is all right that you went over a little bit.    First of all, this is a very informative hearing. I want to thank you for being here. On one side we have experience, on one side we have youth that has worked, and Ambassador Bloomfield, you are in the middle somewhere, as far as--but it has been informative.    And from what I gathered, I would tend to think that the NSC is just too large. I have problems thinking that a staffer can call a four-star general and say, ``Do this.'' To me, that is--I guess I have been involved in politics a long time and it is not your enemies that get you in trouble but your friends or people that work for you. And I think that that is a very possible scenario and it has happened. But as it gets larger, I think it is even more something that can happen and I have a problem with that.    I have a problem with the NSC negotiating. They negotiated secretly. We had here people from the State Department and we asked them about certain negotiations, especially with Cuba. And I don't know if they wanted to lie or not but we were told that they weren't negotiating when, in reality, there was negotiations going on. And I would think that if they are negotiating secretly and you have a State Department person come before this committee and you ask them the question, and she will say no, they weren't, I would take it at her word that she didn't know that secretly somebody was negotiating. And to me, that is a problem.    We are a State Department. We are very careful with people who are capable of doing the kind of work that some people at the NSC is doing. I also think that sometimes this committee, the NSC, is used as a buffer. This is to keep people away from reaching maybe the presidency or the President using the committee to keep other people away. There has got to be somebody in-between to absolve any responsibility.    So, I really don't think that keep growing this committee is going to be helpful to this country or is going to be helpful to the President. I think, as Ambassador Miller expressed, there are many capable people working in different places in the State Department where they are tripping over each other to do something. And they could do some of the work, instead of growing this committee.    And can you just tell me what you think it started to go wrong with this committee, this NSC committee? Where did you see that it started going wrong, with your experience? When did it take the wrong direction? Let me put it this way.    Ambassador Miller. A very inelegant answer is that apparently over time, within the 18 acres at the White House, a sense that speed of movement was critical. And that goes way back, if you look at the graphs here, it goes way back to the Clinton administration, which we saw our first very big spike in NSC staff.    The illusion from my standpoint is that speed of movement is more important than wise decisionmaking. Wise decisionmaking is frequently slow and difficult and there are many times in which speed of movement is the most important issue that you are looking at. But it has become an excuse, I think, for not involving institutions that seem to move too slowly, that have a lot of wisdom and experience. This study began more than 2 years ago when I called some of my agency friends who had been involved in the Afghan situation and I said, really, nobody talked to you about what we were doing in the Middle East. And the answer was no, nobody talked to us. And I said you have got to be kidding me.    So, I don't have an elegant answer to that but I think one thing is that the White House has pushed on an open door. The Congress has allowed this to occur and it is not healthy for the Congress and it is not healthy for the White House either.    Ambassador Bloomfield. Congressman, could I just say that I think this suggests a larger solution? I know people have specific complaints about the NSC staff, probably in both administrations, Republican and Democratic. Part of it is not their fault because with the tools and information they have, with the real-time media contacts, with Ambassadors coming and calling at the White House as well as the State Department and possibly visiting military dignitaries, the question arises of what can the State Department do that the NSC staff can't do. There is a little bit of ``we can do it all here.'' And part of it is because of technology and just the press of business.    So, I think without blaming people, we can look at that and say what can we do. Because if it goes much further, it does cross the line where there is no oversight and Congress can't call them before--they can't confirm the appointees. And the President should not want that to happen.    So, there needs to be a conversation. I, personally, think that Congress has immense power over the next President that could be a subject of discussion during the transition, and before knowing the result of the election, that has to do partly in the Senate with the confirmation process and partly with the amount of hearings and questions for the record. These are things which are enormous burdens on an incoming administration. If their appointees are going to be slow to be confirmed, if they are going to get thousands of questions that the bureaucracy will be tied up answering, you have something to bargain with. And this might be, Congressman Engel had brought up the question of, an authorization bill. I would like to see a grand bargain, where there are fewer high officials in the Executive Branch and frankly, maybe a few fewer gavels in the Congress so that we can get back to a leaner, high-level, principal-to-principal process.    My congressman is yelling at me. I will stop.</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Would my friend just yield for one quick observation?</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, gentlemen. Thanks for all of you for being here. It is a fascinating conversation. Minute by minute, it leads to new questions, at least on my behalf.    And I think about the most recent one on accountability of the President. You know I hate to bring up the sore subject of Ben Rhodes but I don't see any accountability. I mean I see Ben Rhodes on the TV from Laos this week and I, myself, wrote the President a letter asking him to relieve Ben Rhodes for his forays that were made public.    That having been said, I know the 1947 Act doesn't specifically talk about qualifications but you fine gentlemen who have worked in the industry maybe could lead us in the right direction. And I would also say right here that I am not an advocate of Congress meddling too much in the President's business. And I think that regardless of the President's party or who that person is, everybody wants the President to have the tools that he or she needs to complete the mission. But it is apparent, I think, to most people, that this things is pretty broken for whatever reason. And without any congressional oversight, we are completely relying on the executive to make the correct decisions. And once it gets a level or two below him or her, it seems like the rules are being made up as they go for the expedience of whatever at the moment is garnering the attention.    So, with that in mind what should--I looked at Ben Rhodes' qualifications, knowing what he was involved in, the level. This is national security. This is national policy that affects millions of lives and the world and I think that the qualifications for that individual have to be profound and robust in my opinion. I mean I don't have the qualifications to do what some of these folks are doing and I wouldn't deign to think that I do. What should they be and how does that come about?    Anybody.    Ambassador Bloomfield. If I could give a perspective, Congressman Perry. I can't answer about individuals in the current administration but it has been my observation, and I made this in my testimony, that because the agencies in the national security space are so bloated with so many empowered people doing you name it, there are 80 direct reports to the Secretary of State by my count. That is just an unbelievable fact. And I would say OSD and OJCS and, as Congressman Rohrabacher pointed out, the intel community with 800 new billets layered on top of the 16 agencies.    So, that is out there. Now you have the NSC staff which has grown into several hundred. And if you could just imagine, and we all can try to imagine, the President inside the Oval Office saying, ``Who are all these people?'' You are getting huge amounts of paperwork from all of these agencies. Then, you have hundreds of people that you met once, when they came in to say hello and take your picture. I sort of can understand why he would take five people that he trusts and say close the door, we will figure it out. Sort of a treehouse mentality. I don't mean to be----</t>
   </si>
   <si>
@@ -328,9 +301,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Well, thanks for letting us know how you really feel.    Thank you very much for your testimony. I think this has been a very, very, very interesting discussion. And I just wanted to ask a few questions.    One, as I listen to the three of you, and I want you to tell me whether I am right or wrong, there are things that need to be improved in the NSC but I don't think I heard any of you say that we are in some kind of crisis and that there is something terribly wrong.    I guess listening whether we should increase or decrease the staff, what worries me about that is that it seems rather mechanical and I can absolutely appreciate what you were saying Mr. Chollet, if I am pronouncing your name correctly, about how things have changed so much, especially from Bloomfield, you know what you were saying.    Mr. Chollet, you mentioned climate change and I was wondering how--cybersecurity I certainly understand but I was wondering if you could give me an example of how climate change fits in there.    But if each of you could respond to: We are not in a crisis, there are things that could be improved, but there is no great disaster happening. Am I correct in what I hear?</t>
   </si>
   <si>
@@ -371,9 +341,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    So, I think that there are probably too many people in the NSC. I think there are too many people in a lot of parts of government but to me, it is the authority that they are exercising that is more important than the sheer numbers. In other words, if I had to choose between a bloated staff that was basically serving the core advisory function versus a leaner staff that was actually usurping the authorities of the secretaries, I would choose the former. Are most of you in agreement with that? I know Ambassador Bloomfield.    And part of the reason is I think when you have the model gravitating toward where is more policy being implemented by the NSC, it really detracts from the accountability that the American people have.    I mean, for example, Ambassador Bloomfield, I saw you served in different positions. You had to get confirmed by the Senate for those positions.    Ambassador Bloomfield. Yes.</t>
@@ -832,11 +799,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -856,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -884,11 +847,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -910,11 +871,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -936,11 +895,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -962,11 +919,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -988,11 +943,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1014,11 +967,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1038,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1066,11 +1015,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1092,11 +1039,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1118,11 +1063,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1142,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1168,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1194,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1220,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1246,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1272,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1298,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1326,11 +1255,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1350,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1378,11 +1303,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1404,11 +1327,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1428,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1454,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1480,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1506,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1532,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1558,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1584,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1612,11 +1519,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1636,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1662,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1688,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1714,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1740,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1766,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1792,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1818,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1844,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1870,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1896,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1922,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1948,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1974,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2000,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2026,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2052,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2078,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2104,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2130,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2156,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2182,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2208,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>70</v>
-      </c>
-      <c r="H55" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2234,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2260,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2286,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2312,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2338,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2364,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2390,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2416,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2442,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2468,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2494,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2520,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2546,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2572,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2598,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2624,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2650,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2676,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2702,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2728,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2754,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2780,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2806,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2832,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2858,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2884,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2910,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2936,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2962,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2988,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H85" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3014,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3040,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3066,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3092,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>69</v>
-      </c>
-      <c r="G89" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3118,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3144,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3170,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3196,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3224,11 +3007,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3248,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3274,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3300,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3326,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3352,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3378,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3404,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>81</v>
-      </c>
-      <c r="G101" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3430,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3456,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3482,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3508,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>81</v>
-      </c>
-      <c r="G105" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3534,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
-      </c>
-      <c r="G106" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3560,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3586,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
-      </c>
-      <c r="G108" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3614,11 +3367,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. If we could ask all the members to take their seat and the audience as well, this hearing Reforming the National Security Council: Efficiency and Accountability, will come to order.    In recent years, there has been increasing bipartisan concern over the size and the role of the President's National Security Council. In too many cases, its traditional role of ``honest broker'' has evolved to a policy-making role. It has even undertaken secret diplomatic negotiations and that has been done outside of Congress' view.    Indeed, one observer recently wrote, ``The national security advisor and his or her staff remain among the most influential entities in the Federal bureaucracy that are not subject to direct congressional oversight.'' This has proven to be a problem for this committee.    While concerns about the NSC aren't new, they have reached new heights, leading to current proposals before Congress to statutorily restrict the size of the NSC staff. This is a staff that has increased from 100 persons at the start of President George Bush's presidency to reportedly over 400 people today on the NSC staff. Such a large staff sends the message that the President intends to run foreign policy and military operations out of the White House to the exclusion of the cabinet.    It also makes for more meddlers. Indeed, former Defense Secretary Gates has complained that the ``micromanagement'' of the Obama White House ``drove me crazy.'' A smaller staff would more likely empower cabinet secretaries to do what they have been selected and confirmed by the Senate to do and that is to run their departments.    More staff means more meetings and often paralysis. According to a report in the Washington Post last year, on some issues, NSC meetings of the cabinet deputies ``grew so repetitive'' that ``deputies stopped coming, sending assistant secretaries and below in their stead.'' How many hearings has the committee held on Ukraine at which State Department officials have told us that the White House is still debating Kiev's request for heavy defensive weapons?    Also of concern, the profile of an NSC staffer has changed from a seasoned professional doing a stint at the White House as the capstone of their career, to that of junior professionals just off the campaign trail. As one interviewed for the Atlantic Council's Study we will hear about today said, ``This is no place for on-the-job training of bright, young, but inexperienced people.'' Especially at the expense of the State Department.    Take the President's move to normalize relations with Cuba, secretly run out of the White House by two NSC staffers. Secretary of State Kerry was not informed of these negotiations until the discussions were well underway, and State Department officials in charge of the region found out only as the negotiations were all but done.    Why do we care? When the committee requested that these NSC staffers testify, we were told no and given a separation of powers excuse. But our role and the responsibility is to conduct oversight of U.S. relations with foreign nations. And if the committee can't hear directly from those most involved in these negotiations, our role and influence--and that of the American people we represent--is significantly minimalized.    This morning, we will hear from several witnesses who have direct experience with the growing size and role of the President's NSC. While today's focus is about process, process is important to good policy. And we hope that our discussion will lead to recommendations for the next administration to improve the efficiency of this important body.    And I now turn to the ranking member for any opening remarks from Mr. Eliot Engel of New York.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman. Thank you for calling this hearing. Ambassador Miller, Ambassador Bloomfield, Mr. Chollet, welcome to the Foreign Affairs Committee. We are grateful for your time and your expertise.    It has been nearly 70 years since the National Security Act created the National Security Council. Over that time, the council has proved to be a flexible and dynamic body. Every President has shaped the NSC staff in a way that has worked best for his purposes.    Congress intended for the NSC staff to serve as the President's advisory and interagency coordinated body. As the National Security Act put it, to ``advise, coordinate, access and praise'' policymakers relating to national security.    Obviously, over that time, national security politics and concerns has changed, as the world has changed and the NSC has had to keep pace. As we think about how the NSC might look under future administrations, we should keep in mind lessons learned in the NSC's first 70 years.    First, a selection of a National Security Advisor is one of the most critical appointments the President will make. This person sets the tone for the rest of the NSC and the National Security Agencies. The President should have full faith with the National Security Advisor as a trusted confident, a role that Congress has supported.    Secondly, the President's policy staff should be national security experts with experience managing interagency processes. Even though many of them are detailed from other parts of the government, their loyalty should be to our national security and not to any one agency or service.    And thirdly, while the NSC staff should certainly be in the business of advising the President on policy and ensuring the agencies are carrying out that policy, the NSC staff itself should not be carrying out the policy. That responsibility rests with the cabinet agencies with Congress' oversight.    It is essential to our discussion today how do we ensure that the execution of foreign policy stays where it belongs. One common explanation is that the NSC mission creep results from the NSC staff growing too large and the easy solution is to limit the size of the staff. I am sympathetic to that feeling because we don't want it to be too large and we don't want it to be usurping things that the State Department or the Agency should do. But it is not just that. That, in itself, in my opinion, is too simplistic. It fails to take into account why the staff is growing and ignores the bureaucratic demands placed in the NSC.    The real questions we should be asking are about the appropriate role of the NSC and how it is managed, issues that are important, regardless of the size of the staff. I do want to say that I am concerned about the size of the staff but I think these other things are at least equal of concern as well.    In a certain way, the NSC was set up as a clearing house. Seventy years ago, the cabinet agencies had relatively clear-cut missions with a minimal amount of overlap. When matters emerged that required cross-agency collaboration or tradeoffs, the question went up the food chain to the NSC and the NSC coordinated among agencies.    Today, we face so many more issues that are crosscutting and overlapping and they often involve a whole host of cabinet agencies. Just consider the Zika virus. State Department, HHS, and the Agriculture Department all have roles to play in addressing that problem but our civilian agencies are still essentially a stovepipe bureaucracy. So, when questions emerge about one of the many complex national security issues we face, those questions still get passed up to the NSC, often leaving policy-making decisions in the White House's hands. Over time, this pattern has forced the staff to grow as well. Past attempts to create so-called tsars to oversee overlapping issues have proved to be a Band-Aid at best, and at worst, totally ineffective. So, how do we empower our agencies to deal with a modern set of challenges without having their first phone call be to the White House? How do we modernize our agencies and, we think, decades-old bureaucratic structures ill-suited to the new challenges we face?    We know this sort of reform is possible. We saw it succeed decades ago when the Goldwater-Nichols Act forced our military services to work together in joint commands. That law promoted collaboration and a more unified approach to military concerns. Following the same approach, we need to make it easier for the talented men and women in our cabinet agencies to collaborate and arrive at policy consensus. That way, NSC staff could get back to their original mission, advising the President on policy, seeing that policy carried out, and facilitating coordination among agencies only in those instances when it is absolutely necessary.    Yet, we simply cannot expect our agencies to shake off decades-old procedures and habits if Congress isn't providing them with the tools and resources they need to become effective, modern organizations. It has been 15 years since Congress sent a State Department authorization to the President. I want to repeat that, 15 years since Congress sent a State Department authorization to the President. I don't think anyone on this committee, on both sides of the aisle, is happy about that. This committee recently marked up such legislation. It is sitting on the launch pad, waiting for House leadership to say go. I think the problem that we are discussing today is one more reason that the House needs to finish its work on the bill and I would encourage all the other National Security Committees to look at what needs to be done to bring their agencies into the 21st century.    To our witnesses: I am curious to hear your views on the structure of the NSC and how we can make our agencies more effective and collaborative when it comes to policymaking. Again, we are grateful for your time.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Chollet</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chollet. Mr. Chairman, Ranking Member Engel, members of the committee, it is an honor to appear before you again and I will briefly summarize my longer statement for the record.    I approach this important topic from a unique perspective. I served on President-elect Obama's NSC Transition Team 8 years ago and then I went on to serve for 6 years in the Obama administration at the State Department, at the Pentagon, and at the National Security Council staff at the White House. So, therefore, I follow the assessment of this administration's NSC system with great interest, since I both experienced and am partly responsible for many of the concerns that have been raised.    Consider the three most common concerns expressed about the current NSC. First, that it is too big; second, that it is too operational; and third, that it has a proclivity for too much micromanagement and too little strategic thinking. And let me take each in turn.    First, most experts and former officials believe that the NSC is too big. We certainly thought so during the 2008 transition from President Bush to President Obama, as does the current NSC leadership today. And yet the trend, I think, is headed in the right direction. Today's NSC policy and leadership staff consists of fewer than 200 people. And my understanding is that with the current downsizing underway, and there has been about a 15-percent cut in NSC staff since January 2015, the NSC staff size that Obama will leave next year will be roughly the same as what he inherited from President Bush in 2009.    And it is important to consider these numbers in context. Some of the widely cited higher numbers of the Obama NSC staff size reflect the back office functions like those staffing the White House situation room, the records management personnel, as well as the integration of the Homeland Security Council in 2009. And moreover, even despite its growth, the current NSC remains comparatively small. The Joint Chiefs of Staff is over seven times larger. The State Department's Office of the Secretary is nearly twice the size of the NSC staff, as is the staff of the Congressional Research Service. So in many ways, the NSC's evolution reflects global complexity and how much the world and our Government has changed.    For example, the traditional regional policy offices, Latin America, Asia, Europe, et cetera, have looked similar in both size and function during the past several decades, yet there are now new policy dimensions the NSC must cover such as cybersecurity, climate change, WMD proliferation, biosecurity and global health, global economics, counterterrorism. Few of these issues were prominent a quarter century ago and none of them reside in a single agency, which is why close coordination is so important.    Because of this complexity and the importance for the President to maintain flexibility in how she or he can respond to events, I believe it is a mistake to impose arbitrary caps on the NSC staff size, nor do I believe it wise to make the position of National Security Advisor require Senate confirmation. And here, I can do no better than echo the 1987 Tower Commission Report, which studied this issue carefully and in its warning that doing so, making the NSC Advisor Senate-confirmed would undermine the Presidential advisory role the National Security Advisor must play and only create more bureaucratic confusion and tension than it would resolve.    Now, concerns about the NSC size relate directly to a second enduring critique that the NSC is too operational. Now, agencies must be given the responsibility and be held accountable for doing their jobs. And in my experience, that is what Presidents and members of the NSC staff wanted. But at the same time, agencies must operate within the policy parameters set by the President. Now, sometimes, when the White House tried to enforce regular order and place the agencies in charge of a policy, then it was accused of taking its eye off the ball. And where you stand often depends on whether you agree with the policy direction. For example, Obama's NSC has held tight control over U.S. troop levels in Iraq and Afghanistan but it is important to remember that the Bush White House conducted the same intense oversight when managing the surge in Iraq from the West Wing in 2007 and 2008. Moreover, some policy issues lend themselves to a strong White House lead and many of those delicate tasks require such agility that they are best managed from a tight circle within the White House.    Yet, these must be the exception, rather than the rule, which brings us to the third common critique, that by micromanaging, the NSC is not doing enough strategy.    I used to run the strategy office at the NSC. So, I can fully appreciate how difficult this task can be. And in today's tumultuous policy environment where our President is expected to respond to almost everything instantly, it is very difficult to keep the urgent from overwhelming the important. Crisis management tends to dominate the NSC's operations. And although during my time and since, the NSC staff worked very hard to allow senior officials the opportunity to think about long-term strategy and examine crosscutting issues, it has not nearly been enough.    Mr. Chairman, Ranking Member Engel, members of this committee, the recent focus on the NSC's design and operation has generated an important debate. I welcome congressional attention to this issue. My hope is that by opening up this conversation, we can make some necessary changes, empower agencies to do their jobs, while ensuring that the President gets the advice and support she or he requires to conduct a strong, coordinated, and strategic national security policy that serves the interest of the American people.    Thank you very much and I look forward to your questions.</t>
   </si>
   <si>
@@ -130,6 +148,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Chairman. Thank you for this hearing. From the ransom payments in Iran, to the alleged secret Iran deals, and humanitarian catastrophe that is unfolding every day in Syria, the manipulations of intelligence on ISIS, there are too many examples of how the White House has manipulated information while keeping the Congress and, most importantly, the American people in the dark.    And Mr. Chairman, thank you so much for bringing up Cuba in your opening statement because that is a good example of what was happening with the secretive nature. The White House decided to keep not only Congress in the dark but also cut out the State Department and others, even though the White House was negotiating with the Cuban regime for more than a year. Then Assistant Secretary Jacobson testified before our committee in February 2015 that she found out about the negotiations just weeks before the announcement. And when former Deputy National Security Advisor and now Deputy Secretary of State Tony Blinken testified at his confirmation hearing in November 2014, he assured the Senate Foreign Relations Committee that any change in U.S. policy toward Cuba would be done in full consultation with Congress. Well, that turned out to be an utter falsehood, as less than a month later with zero consultation with the Congress, the administration announced what has proven to be a complete failure of a deal with the Castro regime. And as we heard from Ambassador Bloomfield, NSC staffers shouldn't conduct official actions, which are supposed to be the responsibility of agencies that are answerable to Congress, and then expect to be immune from accountability.    So, Mr. Chollet, I have a series of questions. We won't have time to answer them but maybe we can have a discussion afterward.    Is it worrisome that NSC is not accountable to Congress or that when Congress attempts to exercise our oversight authority in the foreign policy realm, it cannot perform that function because NSC officials do not testify before Congress? Also, what steps can Congress make in order to make the NSC more transparent?    There was a time when NSC staffers were trained on the proper rules to delineate between the duties and roles of the NSC and the duties and roles of the State Department or Defense Department, making sure that they didn't overlap and, instead, stayed focused on their responsibility in those lanes and left the policymaking to the proper person. And I was wondering if you received that kind of training when you were at the NSC and do you have any idea if training programs of this type still exist.    Also, in November of last year, when I traveled to Afghanistan and our generals on the ground indicated that their hands were tied when it came to operations, no doubt it was because, I believe, NSC was overriding our leaders on the field, and former Defense Secretaries Gates and Panetta both have complained about NSC staff imposing themselves on their jurisdiction. Based on your experience in both the NSC and various government agencies, maybe you can help shed some light on that.    Thank you, sir.</t>
   </si>
   <si>
@@ -157,6 +181,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Last century the high-water mark for the NSC was Kissinger. Everything we complain about now was probably more true then, in terms of the NSC.    As to this century, I have seen this committee and the House of Representatives in general go from foreign policy makers to foreign policy kibitzers that are at least allowed to provide some oversight and some input to really an irrelevancy because the most important people making and carrying out foreign policy don't even come here and pretend to listen to us.    Mr. Chairman, the Armed Services Committee passes an authorization bill every year and nothing illustrates the importance of that more than that the provision to limit the size of the National Security Council is in their bill and will be considered in their bill, whereas our bill for 15 years is an exercise in--well, often isn't even written. It usually isn't even considered by the House and hasn't reached the President's desk in 15 years.    So, what we need to do is say not how can we possibly get the most important Presidential advisor on foreign policy to come into this room but how can we write an authorizing bill in this room that becomes law? And I would like to see us demand that we don't appropriate money for foreign policy that isn't authorized. And we could do that by insisting that the authorizing bill that we pass be joined to the appropriations bill and that neither the Senate nor the President should be able to get the money without dealing with the authorizing provisions. And if we, as a committee, would demand that the rule for considering the foreign operations appropriations bill include both the authorizing and the appropriation. And I would like them to be separate bills but separate bills where one of them is thrown away, that is not the best approach. So, if they were married, then, when they go over to the Senate, we make it plain--you have to have an authorizing and an appropriations bill. You go to the President and you say you want the money, you have to look at the appropriations; you have to look at the authorizations as well.    Mr. Chollet, I am going to go into a much less significant point. You compared the NSC staff to CRS. Is that just the CRS foreign policy national security folks? That is not their folks on medicine or transportation or whatever.</t>
   </si>
   <si>
@@ -211,6 +241,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher [presiding]. Well, here we are and it is in my hands. There you go. Be afraid. Be very afraid.    All right, let me just note that I had the privilege of serving in the White House for 7 years and I had a lot of experience with the NSC and a lot of experience since then and during that time, with the other agencies of government. So, I have more than just having been here on this side of the questioning.    Let me suggest this. I think that our Government isn't working as effectively as it could and should. I think that targeting the NSC is the wrong target. Having, as I say, experience with all of these players, it is not the NSC that is the problem. The problem is we have a bloated State Department and a bloated intelligence community. I mean after 9/11, what did we do? We made the intelligence community even more complicated, put even another layer of bureaucracy between the President and his intelligence sources. That is what we did in Congress.    Now, the fact is the National Security Council was established so that the President of the United States would have people on his staff who could keep up on the issues of the day. And now there is a debate whether or not the NSC is overstepping its bounds when the President actually engages in foreign policy activities that I guess the Congress or other people or the State Department feels they should be conducting. Let us note that Kissinger made a dramatic difference in the history of this country when, at the height of the Cold War, when it was going against us, it looked like the United States was going down, that he changed the whole dynamics by reaching out to China. That happened secretly. I believe if they tried to do it through the State Department, that initiative never would have succeeded. That would have been undercut and every step of the way, not to mention what would happen if the CIA and everybody else was involved in it.    Let me note also that the bad use of the NSC, what Ambassador Bloomfield mentioned was the Iran-Contra Affair. We had given the contras $100 million the year before to the CIA and then all of a sudden we are going to cut them off. There is a lot of politics being played on that that culminated, instead of letting those guys go, Ollie North took it upon himself to make sure they got money for ammunition, et cetera. So, I don't think that is an example of how things go haywire.    And thinking back, the Iran-Contra Affair demonstrated that the President of the United States has to be a player in these things and has to have a staff that is able to be a player.    Ollie North, also, I might add, when he was there, took it upon himself to reposition a carrier battle group so that when the Achille Lauro was taken over that we would have airplanes that could actually intercept the terrorists when they were captured, if you remember that.    Now, I don't know if we would have gone through the normal channels whether that carrier battleship would force but they at least paid attention when Ollie North called up the admiral and said, that would be a good place to have put them there in case of emergency.    One personal example I remember and I have been deeply involved in the Afghan thing since I was a speechwriter. What is a speechwriter doing being involved in helping the Mujahideen in Afghanistan? But that is the way it was and there was a situation where a general called me and said look, we have to take off within a matter of days or there is a field hospital that will not go to the Mujahideen on the border of Pakistan and Afghanistan.    And these are men who put their lives on the line for us and the Pakistanis are demanding money for our planes to land and our planes aren't going to land. And thus, hundreds of Mujahideen are going to die because we don't have this field hospital that is in the back of the C-130 waiting to go there. Can you do something?    Now, at that time, I am a member of the President's staff. I am a Special Assistant to the President of the United States. Well, if I had to go call up somebody over at the State Department, the CIA, or the Defense Department, it would not have gotten done. I know that. Hundreds of people fighting for us against the Soviet army would have been dead. And I called up a guy at NSC and he said well, we can't do this on our own; I can't do this. And I said look, all I want you to do is take a call, give a call to our Embassy in Pakistan, and they will then tell the Pakistani Government that the White House has called and the job will get done. Oh, I can't do that on my own. You know what? He called back and he said okay, I will do it. Because I told him, I said okay, hundreds of people will die who are our best allies in the fight against the Soviet Union and they will die because you are not willing to make one call.    He calls back and says okay, I will do it. And do you know what? One call and that hospital equipment got there and hundreds of lives were saved. We need to have a National Security Council that can function, that can do that, that can save the lives of those of hundreds of thousands Mujahideen fighters or whoever it is that is in jeopardy around the world.    And isn't NSC involved in crisis management? Okay, the President needs a staff to be there during a crisis. Does the President need someone for policy analysis so that he is not getting hundreds of reports from different points of view? Let somebody be there who can digest it over a matter of days, rather than an hour when the President has to make a decision. No, we need that.    And I think that the NSC should not be decreased and, instead we should try to make the rest of the government more efficient and that is where things are breaking down.    Please feel free to comment on anything I just said right down the line, Ambassador Miller.    Ambassador Miller. On the intel situation, I could not agree more. For my 2 years at the White House, I ran the Counter Terrorism Coordination weekly meeting, the CSG, Lincoln and I got to meet each other then.    Counter terrorism requires a very tight turning radius and that means speed of movement and trust of communicators. You can't do that among large bureaucratic structures I don't think. Eventually, it gets down to does the J3 trust you? Does the head of counter terrorism at the CIA trust you? Do your principals trust you as the first line actors? And if they don't, you can lose that advantage of information which may be stale in 2 or 3 days and you have to move.    On your ability to call, let us suppose you need to call the J3. The problem with a very, very large White House staff is that senior officers at the Pentagon don't get to know the White House staff and they don't really know who is phoning. And you get more stories about the White House called--456-1414 is not a self-dialing machine. You know----</t>
   </si>
   <si>
@@ -232,6 +268,12 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman. It is all right that you went over a little bit.    First of all, this is a very informative hearing. I want to thank you for being here. On one side we have experience, on one side we have youth that has worked, and Ambassador Bloomfield, you are in the middle somewhere, as far as--but it has been informative.    And from what I gathered, I would tend to think that the NSC is just too large. I have problems thinking that a staffer can call a four-star general and say, ``Do this.'' To me, that is--I guess I have been involved in politics a long time and it is not your enemies that get you in trouble but your friends or people that work for you. And I think that that is a very possible scenario and it has happened. But as it gets larger, I think it is even more something that can happen and I have a problem with that.    I have a problem with the NSC negotiating. They negotiated secretly. We had here people from the State Department and we asked them about certain negotiations, especially with Cuba. And I don't know if they wanted to lie or not but we were told that they weren't negotiating when, in reality, there was negotiations going on. And I would think that if they are negotiating secretly and you have a State Department person come before this committee and you ask them the question, and she will say no, they weren't, I would take it at her word that she didn't know that secretly somebody was negotiating. And to me, that is a problem.    We are a State Department. We are very careful with people who are capable of doing the kind of work that some people at the NSC is doing. I also think that sometimes this committee, the NSC, is used as a buffer. This is to keep people away from reaching maybe the presidency or the President using the committee to keep other people away. There has got to be somebody in-between to absolve any responsibility.    So, I really don't think that keep growing this committee is going to be helpful to this country or is going to be helpful to the President. I think, as Ambassador Miller expressed, there are many capable people working in different places in the State Department where they are tripping over each other to do something. And they could do some of the work, instead of growing this committee.    And can you just tell me what you think it started to go wrong with this committee, this NSC committee? Where did you see that it started going wrong, with your experience? When did it take the wrong direction? Let me put it this way.    Ambassador Miller. A very inelegant answer is that apparently over time, within the 18 acres at the White House, a sense that speed of movement was critical. And that goes way back, if you look at the graphs here, it goes way back to the Clinton administration, which we saw our first very big spike in NSC staff.    The illusion from my standpoint is that speed of movement is more important than wise decisionmaking. Wise decisionmaking is frequently slow and difficult and there are many times in which speed of movement is the most important issue that you are looking at. But it has become an excuse, I think, for not involving institutions that seem to move too slowly, that have a lot of wisdom and experience. This study began more than 2 years ago when I called some of my agency friends who had been involved in the Afghan situation and I said, really, nobody talked to you about what we were doing in the Middle East. And the answer was no, nobody talked to us. And I said you have got to be kidding me.    So, I don't have an elegant answer to that but I think one thing is that the White House has pushed on an open door. The Congress has allowed this to occur and it is not healthy for the Congress and it is not healthy for the White House either.    Ambassador Bloomfield. Congressman, could I just say that I think this suggests a larger solution? I know people have specific complaints about the NSC staff, probably in both administrations, Republican and Democratic. Part of it is not their fault because with the tools and information they have, with the real-time media contacts, with Ambassadors coming and calling at the White House as well as the State Department and possibly visiting military dignitaries, the question arises of what can the State Department do that the NSC staff can't do. There is a little bit of ``we can do it all here.'' And part of it is because of technology and just the press of business.    So, I think without blaming people, we can look at that and say what can we do. Because if it goes much further, it does cross the line where there is no oversight and Congress can't call them before--they can't confirm the appointees. And the President should not want that to happen.    So, there needs to be a conversation. I, personally, think that Congress has immense power over the next President that could be a subject of discussion during the transition, and before knowing the result of the election, that has to do partly in the Senate with the confirmation process and partly with the amount of hearings and questions for the record. These are things which are enormous burdens on an incoming administration. If their appointees are going to be slow to be confirmed, if they are going to get thousands of questions that the bureaucracy will be tied up answering, you have something to bargain with. And this might be, Congressman Engel had brought up the question of, an authorization bill. I would like to see a grand bargain, where there are fewer high officials in the Executive Branch and frankly, maybe a few fewer gavels in the Congress so that we can get back to a leaner, high-level, principal-to-principal process.    My congressman is yelling at me. I will stop.</t>
   </si>
   <si>
@@ -241,6 +283,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Would my friend just yield for one quick observation?</t>
   </si>
   <si>
@@ -259,6 +307,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, gentlemen. Thanks for all of you for being here. It is a fascinating conversation. Minute by minute, it leads to new questions, at least on my behalf.    And I think about the most recent one on accountability of the President. You know I hate to bring up the sore subject of Ben Rhodes but I don't see any accountability. I mean I see Ben Rhodes on the TV from Laos this week and I, myself, wrote the President a letter asking him to relieve Ben Rhodes for his forays that were made public.    That having been said, I know the 1947 Act doesn't specifically talk about qualifications but you fine gentlemen who have worked in the industry maybe could lead us in the right direction. And I would also say right here that I am not an advocate of Congress meddling too much in the President's business. And I think that regardless of the President's party or who that person is, everybody wants the President to have the tools that he or she needs to complete the mission. But it is apparent, I think, to most people, that this things is pretty broken for whatever reason. And without any congressional oversight, we are completely relying on the executive to make the correct decisions. And once it gets a level or two below him or her, it seems like the rules are being made up as they go for the expedience of whatever at the moment is garnering the attention.    So, with that in mind what should--I looked at Ben Rhodes' qualifications, knowing what he was involved in, the level. This is national security. This is national policy that affects millions of lives and the world and I think that the qualifications for that individual have to be profound and robust in my opinion. I mean I don't have the qualifications to do what some of these folks are doing and I wouldn't deign to think that I do. What should they be and how does that come about?    Anybody.    Ambassador Bloomfield. If I could give a perspective, Congressman Perry. I can't answer about individuals in the current administration but it has been my observation, and I made this in my testimony, that because the agencies in the national security space are so bloated with so many empowered people doing you name it, there are 80 direct reports to the Secretary of State by my count. That is just an unbelievable fact. And I would say OSD and OJCS and, as Congressman Rohrabacher pointed out, the intel community with 800 new billets layered on top of the 16 agencies.    So, that is out there. Now you have the NSC staff which has grown into several hundred. And if you could just imagine, and we all can try to imagine, the President inside the Oval Office saying, ``Who are all these people?'' You are getting huge amounts of paperwork from all of these agencies. Then, you have hundreds of people that you met once, when they came in to say hello and take your picture. I sort of can understand why he would take five people that he trusts and say close the door, we will figure it out. Sort of a treehouse mentality. I don't mean to be----</t>
   </si>
   <si>
@@ -301,6 +355,12 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Well, thanks for letting us know how you really feel.    Thank you very much for your testimony. I think this has been a very, very, very interesting discussion. And I just wanted to ask a few questions.    One, as I listen to the three of you, and I want you to tell me whether I am right or wrong, there are things that need to be improved in the NSC but I don't think I heard any of you say that we are in some kind of crisis and that there is something terribly wrong.    I guess listening whether we should increase or decrease the staff, what worries me about that is that it seems rather mechanical and I can absolutely appreciate what you were saying Mr. Chollet, if I am pronouncing your name correctly, about how things have changed so much, especially from Bloomfield, you know what you were saying.    Mr. Chollet, you mentioned climate change and I was wondering how--cybersecurity I certainly understand but I was wondering if you could give me an example of how climate change fits in there.    But if each of you could respond to: We are not in a crisis, there are things that could be improved, but there is no great disaster happening. Am I correct in what I hear?</t>
   </si>
   <si>
@@ -341,6 +401,12 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    So, I think that there are probably too many people in the NSC. I think there are too many people in a lot of parts of government but to me, it is the authority that they are exercising that is more important than the sheer numbers. In other words, if I had to choose between a bloated staff that was basically serving the core advisory function versus a leaner staff that was actually usurping the authorities of the secretaries, I would choose the former. Are most of you in agreement with that? I know Ambassador Bloomfield.    And part of the reason is I think when you have the model gravitating toward where is more policy being implemented by the NSC, it really detracts from the accountability that the American people have.    I mean, for example, Ambassador Bloomfield, I saw you served in different positions. You had to get confirmed by the Senate for those positions.    Ambassador Bloomfield. Yes.</t>
@@ -749,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,2597 +845,3086 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>89</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
       <c r="H61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>113</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G90" t="s">
+        <v>129</v>
+      </c>
       <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G91" t="s">
+        <v>129</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
       <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G93" t="s">
+        <v>129</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>89</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s">
+        <v>89</v>
+      </c>
       <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G97" t="s">
+        <v>89</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G101" t="s">
+        <v>89</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G103" t="s">
+        <v>89</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G105" t="s">
+        <v>89</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>74</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G106" t="s">
+        <v>89</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G108" t="s">
+        <v>89</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21460.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t>400344</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ros-Lehtinen</t>
@@ -815,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +835,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,3083 +860,3356 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G90" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G95" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G97" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G101" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
